--- a/01-Excel/01-Activites/2/Activities/07-Ins_Formatting/Solved/NumberTypes.xlsx
+++ b/01-Excel/01-Activites/2/Activities/07-Ins_Formatting/Solved/NumberTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\07-Ins_Formatting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/07-Ins_Formatting/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="032F12252481D2C89CD1AA78F1B3029AE7DCC0CC" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{96DB4D6A-14F0-4A40-8C3A-D0095B6C1820}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8AEC36-6081-7045-908E-27FB5E76713A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,14 +486,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.73046875" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" style="2" customWidth="1"/>
-    <col min="3" max="8" width="20.73046875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
+    <col min="3" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -515,7 +515,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2500</v>
       </c>
@@ -526,7 +526,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1000000000</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30000</v>
       </c>
@@ -548,7 +548,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -559,7 +559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.25</v>
       </c>
